--- a/evaluation/results/autoencoder/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_1/test_50_50/evaluation_metrics.xlsx
@@ -503,34 +503,34 @@
         <v>0.6320224719101124</v>
       </c>
       <c r="C2">
-        <v>0.5779005524861879</v>
+        <v>0.5785953177257525</v>
       </c>
       <c r="D2">
-        <v>0.9794007490636704</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="E2">
-        <v>0.7268936761640028</v>
+        <v>0.7253668763102725</v>
       </c>
       <c r="F2">
-        <v>0.8599145018086156</v>
+        <v>0.8555885262116716</v>
       </c>
       <c r="G2">
-        <v>0.9539109084531743</v>
+        <v>0.9471467677405769</v>
       </c>
       <c r="H2">
-        <v>0.7773955308673148</v>
+        <v>0.7777356955491029</v>
       </c>
       <c r="I2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9325153374233128</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="C2">
-        <v>0.2846441947565543</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="D2">
-        <v>0.436154949784792</v>
+        <v>0.4425531914893617</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5779005524861879</v>
+        <v>0.5785953177257525</v>
       </c>
       <c r="C3">
-        <v>0.9794007490636704</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="D3">
-        <v>0.7268936761640028</v>
+        <v>0.7253668763102725</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7552079449547504</v>
+        <v>0.7454380097400692</v>
       </c>
       <c r="C5">
-        <v>0.6320224719101123</v>
+        <v>0.6320224719101124</v>
       </c>
       <c r="D5">
-        <v>0.5815243129743974</v>
+        <v>0.5839600338998171</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7552079449547503</v>
+        <v>0.7454380097400691</v>
       </c>
       <c r="C6">
         <v>0.6320224719101124</v>
       </c>
       <c r="D6">
-        <v>0.5815243129743973</v>
+        <v>0.5839600338998171</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
